--- a/tutorials/data flair course/student doc.xlsx
+++ b/tutorials/data flair course/student doc.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -409,16 +409,6 @@
           <t>S/N</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>S.NAMES</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>GRADE</t>
@@ -429,14 +419,6 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>james cla</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>A</t>
@@ -444,15 +426,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>teams coad</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>68</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -462,17 +436,19 @@
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>kasty</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>76</v>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>S.NAMES</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SCORE</t>
         </is>
       </c>
     </row>
@@ -480,18 +456,18 @@
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>coady</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>68</v>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>james cla</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -511,6 +487,14 @@
           <t>C</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>teams coad</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -529,6 +513,14 @@
           <t>A</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>kasty</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -546,6 +538,14 @@
         <is>
           <t>C</t>
         </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>coady</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
